--- a/Data/Sediment Trap/NGA Sediment Trap Chlorophylls.xlsx
+++ b/Data/Sediment Trap/NGA Sediment Trap Chlorophylls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Kelly\Documents\GitHub\NGA-Data-Processing\Data\Sediment Trap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF63869F-C456-4FEF-903D-0E9F83493748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344656C4-15A8-49AE-A3BE-E7A2A54999AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="195" windowWidth="14550" windowHeight="14700" xr2:uid="{F5A63C57-2D06-4EBE-8C6F-0BC6753FB56B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F5A63C57-2D06-4EBE-8C6F-0BC6753FB56B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,7 +648,7 @@
   <dimension ref="A1:V486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D251" sqref="D251"/>
@@ -656,7 +656,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
